--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,31 +61,40 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>great</t>
@@ -97,88 +103,82 @@
     <t>glad</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>potatoes</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
@@ -187,70 +187,61 @@
     <t>good</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>every</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>time</t>
@@ -617,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -736,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3333333333333333</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.303030303030303</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,69 +845,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8405797101449275</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+      <c r="M6">
+        <v>58</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.8668730650154799</v>
-      </c>
-      <c r="L6">
-        <v>560</v>
-      </c>
-      <c r="M6">
-        <v>560</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1297297297297297</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>161</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,15 +947,15 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.6956521739130435</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
         <v>32</v>
@@ -1006,47 +973,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>0.6986301369863014</v>
+      </c>
+      <c r="L11">
+        <v>51</v>
+      </c>
+      <c r="M11">
+        <v>51</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>22</v>
-      </c>
-      <c r="K11">
-        <v>0.6711864406779661</v>
-      </c>
-      <c r="L11">
-        <v>198</v>
-      </c>
-      <c r="M11">
-        <v>198</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6619718309859155</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6276083467094703</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L14">
-        <v>782</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>782</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>464</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.625</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.609375</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6029411764705882</v>
+        <v>0.630016051364366</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>785</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>785</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5972222222222222</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5828571428571429</v>
+        <v>0.546875</v>
       </c>
       <c r="L20">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5657894736842105</v>
+        <v>0.5314285714285715</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5571428571428572</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L23">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5089820359281437</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
         <v>36</v>
       </c>
-      <c r="K25">
-        <v>0.4957264957264957</v>
-      </c>
-      <c r="L25">
-        <v>58</v>
-      </c>
       <c r="M25">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4939759036144578</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4615384615384616</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.456140350877193</v>
+        <v>0.46</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4285714285714285</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.41</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.3915662650602409</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.3770491803278688</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1583,16 +1550,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.3553921568627451</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L33">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="M33">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>263</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3538461538461539</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3492063492063492</v>
+        <v>0.375</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1656,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3424124513618677</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="L36">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M36">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1682,12 +1649,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>0.3382352941176471</v>
@@ -1713,16 +1680,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3273972602739726</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L38">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1734,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>491</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3063063063063063</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1760,15 +1727,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>77</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.2962962962962963</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L40">
         <v>24</v>
@@ -1786,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.2932330827067669</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L41">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1812,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2805755395683453</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1838,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2727272727272727</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L43">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1864,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2376237623762376</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1890,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2335844994617869</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L45">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1916,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>712</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2222222222222222</v>
+        <v>0.2368137782561895</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1942,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>84</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2072072072072072</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1968,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2033248081841432</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L48">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1994,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>623</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.1986754966887417</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2020,47 +1987,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>121</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1964285714285714</v>
+        <v>0.1777493606138107</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>90</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.1943573667711599</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L51">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2072,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>257</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1880794701986755</v>
+        <v>0.1630094043887147</v>
       </c>
       <c r="L52">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="M52">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2098,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>613</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1610738255033557</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2124,47 +2091,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1571815718157182</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L54">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M54">
         <v>60</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>311</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1402439024390244</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2176,47 +2143,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1242937853107345</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>155</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1218487394957983</v>
+        <v>0.1254612546125461</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2228,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1184210526315789</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L58">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M58">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2254,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1181818181818182</v>
+        <v>0.1193317422434367</v>
       </c>
       <c r="L59">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M59">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2280,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1180811808118081</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2306,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>239</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1145584725536993</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L61">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2332,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>371</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1070559610705596</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L62">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2358,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>367</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1030927835051546</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2384,163 +2351,111 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.08518518518518518</v>
+        <v>0.06743185078909612</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>247</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.07103825136612021</v>
+        <v>0.06629318394024276</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>340</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.06909430438842204</v>
+        <v>0.05350553505535055</v>
       </c>
       <c r="L66">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M66">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>997</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.06599713055954089</v>
+        <v>0.03902862098872507</v>
       </c>
       <c r="L67">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M67">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K68">
-        <v>0.04612546125461255</v>
-      </c>
-      <c r="L68">
-        <v>25</v>
-      </c>
-      <c r="M68">
-        <v>25</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K69">
-        <v>0.0380952380952381</v>
-      </c>
-      <c r="L69">
-        <v>44</v>
-      </c>
-      <c r="M69">
-        <v>46</v>
-      </c>
-      <c r="N69">
-        <v>0.96</v>
-      </c>
-      <c r="O69">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
